--- a/Income/FTV_inc.xlsx
+++ b/Income/FTV_inc.xlsx
@@ -1481,10 +1481,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.54</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.5275</v>
@@ -1571,22 +1569,20 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.1026</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.0828</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.0495</v>
+        <v>0.0489</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.0403</v>
+        <v>0.0397</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0465</v>
+        <v>0.046</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.0606</v>
@@ -1661,10 +1657,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.2973</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.2692</v>
@@ -1751,10 +1745,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.2663</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.2373</v>
@@ -1841,10 +1833,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>0.2209</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.2098</v>
@@ -1856,7 +1846,7 @@
         <v>0.2024</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.1642</v>
+        <v>0.1652</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>0.1635</v>
@@ -2883,10 +2873,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>0.224</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.2158</v>
@@ -2973,10 +2961,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>0.2296</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0.2206</v>
